--- a/data/DMIteration/ScoreCalculation.xlsx
+++ b/data/DMIteration/ScoreCalculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\githubDesktop\CIRP2025\CIRP-2025\data\DMIteration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030771C-1F1A-4F32-A77C-75162D367C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2B300-0334-49DA-8BFA-6481F80153BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Iterative Score Calculation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,62 @@
     <t>Formula Computing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>likert2</t>
+  </si>
+  <si>
+    <t>Elicitation2</t>
+  </si>
+  <si>
+    <t>Judgment2</t>
+  </si>
+  <si>
+    <t>car2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -208,9 +264,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -223,9 +277,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
@@ -239,19 +291,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2878B5"/>
+      <color rgb="FFF8AC8C"/>
+      <color rgb="FFFF8884"/>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,6 +443,2727 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Score Ranking</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>likert2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF8884"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Scheme4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scheme6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scheme8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scheme1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iteration3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scheme3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iteration2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scheme9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Scheme7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Scheme5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iteration1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scheme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1400000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5799999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38DB-2C4D-8116-A34123EC2E8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elicitation2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F8AC8C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Scheme4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scheme6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scheme8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scheme1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iteration3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scheme3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iteration2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scheme9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Scheme7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Scheme5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iteration1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scheme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.55740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5799999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38DB-2C4D-8116-A34123EC2E8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Judgment2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2878B5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Scheme4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scheme6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scheme8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scheme1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iteration3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scheme3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Iteration2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scheme9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Scheme7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Scheme5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Iteration1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scheme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.14280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1400000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38DB-2C4D-8116-A34123EC2E8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="410231232"/>
+        <c:axId val="410232880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="410231232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410232880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410232880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410231232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Design optimization process score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scheme2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iteration2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iteration3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D49A-8446-B4C5-926550F661C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="409438432"/>
+        <c:axId val="409440112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="409438432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409440112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="409440112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409438432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172642</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C8F34D-7C8C-3C42-A5E2-18AA9685FC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19844</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585390</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F850F7B-EE4C-DA4F-A672-C64B19AFAAFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>46892</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52753</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>128464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8BC04D-4D8F-E5E3-6A26-8C357CE65872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2930769" y="8445987"/>
+          <a:ext cx="2033953" cy="1354015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>61090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46894</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>166631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE31DB35-FCBA-32CA-F482-C2D3172CEE7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1629509" y="10260167"/>
+          <a:ext cx="2010508" cy="1336464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9123</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>49502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>667554</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>164124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616F8A7E-9E9C-C73F-EE90-001066692E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4317354" y="10248579"/>
+          <a:ext cx="2024169" cy="1345545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1622307</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>89372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>697523</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3973C9-AD4B-2B78-2BED-96A893093D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1622307" y="12046910"/>
+          <a:ext cx="1959093" cy="1302287"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1619906</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673016</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719468D5-04AD-1919-569A-E27BFDC6EE31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619906" y="13644709"/>
+          <a:ext cx="1936987" cy="1287592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1629228</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>102156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>682338</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>158825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99263B8-65A0-2A6D-6792-8A7C1153C854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1629228" y="15224925"/>
+          <a:ext cx="1936987" cy="1287592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3180</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>99754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>156423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C04B702-901D-76DF-545B-BC53E5FB7AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1632688" y="16805139"/>
+          <a:ext cx="1936987" cy="1287592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>708041</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603738</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>156975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1274ED82-72DF-113F-6D7E-22FF0BBB4752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4301164" y="12031550"/>
+          <a:ext cx="1976543" cy="1313887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13980</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>156475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AC126C5-5CB5-6257-18E3-85E2F2587E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4322211" y="13717273"/>
+          <a:ext cx="1820681" cy="1210279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11582</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>121966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>550986</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>157467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA4D12D-72BF-039A-FBB7-8692F24C087A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4319813" y="15244735"/>
+          <a:ext cx="1905142" cy="1266424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240326</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>146541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205155</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>145816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BDCF1E-3ED9-2B90-3AEC-F5E26146A05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124203" y="18258695"/>
+          <a:ext cx="1992921" cy="1230198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2557A61-BF2E-004A-814B-89A268E517B2}" name="Table2" displayName="Table2" ref="B18:I30" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B18:I30" xr:uid="{D2557A61-BF2E-004A-814B-89A268E517B2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C6025B81-F3AB-364F-ADB1-5DB8438294D5}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6529127C-1E3B-8D44-9721-7DFD1A2CA2EF}" name="likert" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5528BFA9-4F88-0342-99CD-F4950CE4162D}" name="Elicitation" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B628FC77-4E63-4542-9C8C-F6A27E40421D}" name="Judgment" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2DBCE39A-7D54-9241-808D-51599D7382CA}" name="likert2">
+      <calculatedColumnFormula>0.2*C19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{142E8FA4-68B1-2944-9E47-EC38E33246F9}" name="Elicitation2">
+      <calculatedColumnFormula>0.6*D19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BC0949D8-1E92-3342-BA6D-0704103115DE}" name="Judgment2">
+      <calculatedColumnFormula>0.2*E19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{255F2808-B0D4-E849-8454-BFF490283D26}" name="score" dataDxfId="0">
+      <calculatedColumnFormula>F19+G19+H19</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,15 +3429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -806,401 +3714,454 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F19">
+        <f>0.2*C19</f>
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="G19">
+        <f>0.6*D19</f>
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="H19">
+        <f>0.2*E19</f>
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="I19" s="3">
+        <f>F19+G19+H19</f>
+        <v>0.87880000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F30" si="3">0.2*C20</f>
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G30" si="4">0.6*D20</f>
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H30" si="5">0.2*E20</f>
+        <v>0.12860000000000002</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" ref="I20:I30" si="6">F20+G20+H20</f>
+        <v>0.82140000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.71399999999999997</v>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.5</v>
       </c>
       <c r="F21">
-        <f>0.2*C21</f>
-        <v>0.17860000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.12860000000000002</v>
       </c>
       <c r="G21">
-        <f>0.6*D21</f>
-        <v>0.55740000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.36419999999999997</v>
       </c>
       <c r="H21">
-        <f>0.2*E21</f>
-        <v>0.14280000000000001</v>
-      </c>
-      <c r="I21" s="5">
-        <f>F21+G21+H21</f>
-        <v>0.87880000000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="6"/>
+        <v>0.59279999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.64300000000000002</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F32" si="3">0.2*C22</f>
-        <v>0.17860000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.12140000000000001</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G32" si="4">0.6*D22</f>
-        <v>0.51419999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.34259999999999996</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H32" si="5">0.2*E22</f>
+        <f t="shared" si="5"/>
         <v>0.12860000000000002</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" ref="I22:I32" si="6">F22+G22+H22</f>
-        <v>0.82140000000000002</v>
+      <c r="I22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.59260000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>0.12860000000000002</v>
-      </c>
-      <c r="G23">
+        <v>0.1358</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="4"/>
-        <v>0.36419999999999997</v>
-      </c>
-      <c r="H23">
+        <v>0.3216</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="5">
+        <v>0.1142</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="6"/>
-        <v>0.59279999999999999</v>
+        <v>0.5716</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="D24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E24" s="3">
+      <c r="D24" s="2">
         <v>0.64300000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.35699999999999998</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.12140000000000001</v>
+        <v>0.1142</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>0.34259999999999996</v>
+        <v>0.38579999999999998</v>
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>0.12860000000000002</v>
-      </c>
-      <c r="I24" s="5">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="6"/>
-        <v>0.59260000000000002</v>
+        <v>0.57140000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="D25" s="8">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E25" s="8">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="D25" s="4">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>0.1358</v>
-      </c>
-      <c r="G25" s="9">
+        <v>0.10720000000000002</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
-        <v>0.3216</v>
-      </c>
-      <c r="H25" s="9">
+        <v>0.25739999999999996</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>0.1142</v>
-      </c>
-      <c r="I25" s="8">
+        <v>0.12860000000000002</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" si="6"/>
-        <v>0.5716</v>
+        <v>0.49319999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.35699999999999998</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.14299999999999999</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>0.1142</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>0.38579999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="I26" s="5">
+        <v>2.86E-2</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>0.57140000000000002</v>
+        <v>0.41439999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="3"/>
-        <v>0.10720000000000002</v>
-      </c>
-      <c r="G27" s="9">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="4"/>
-        <v>0.25739999999999996</v>
-      </c>
-      <c r="H27" s="9">
+        <v>0.17159999999999997</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="5"/>
-        <v>0.12860000000000002</v>
-      </c>
-      <c r="I27" s="8">
+        <v>2.86E-2</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="6"/>
-        <v>0.49319999999999997</v>
+        <v>0.27160000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.14299999999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>8.5800000000000001E-2</v>
+        <v>6.4200000000000007E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>8.5799999999999987E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>2.86E-2</v>
-      </c>
-      <c r="I28" s="5">
+        <v>1.4199999999999999E-2</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="6"/>
-        <v>0.41439999999999999</v>
+        <v>0.16419999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="G29">
+        <v>6.4200000000000007E-2</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="4"/>
-        <v>0.17159999999999997</v>
-      </c>
-      <c r="H29">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="5"/>
-        <v>2.86E-2</v>
-      </c>
-      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" si="6"/>
-        <v>0.27160000000000001</v>
+        <v>0.12840000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E30" s="3">
-        <v>7.0999999999999994E-2</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>6.4200000000000007E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>8.5799999999999987E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>1.4199999999999999E-2</v>
-      </c>
-      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
         <f t="shared" si="6"/>
-        <v>0.16419999999999998</v>
+        <v>3.5799999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.107</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="3"/>
-        <v>6.4200000000000007E-2</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="4"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.12840000000000001</v>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="6"/>
-        <v>3.5799999999999998E-2</v>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>